--- a/data_clean/Aker 15.12.2020.xlsx
+++ b/data_clean/Aker 15.12.2020.xlsx
@@ -840,7 +840,7 @@
         <v>1.257055643209673</v>
       </c>
       <c r="K2">
-        <v>52.59761465702561</v>
+        <v>0.02597614657025609</v>
       </c>
       <c r="L2">
         <v>0.004156973309853096</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.03079971019957163</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -982,7 +982,7 @@
         <v>2.105263157894737</v>
       </c>
       <c r="K4">
-        <v>67.79661016949153</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="L4">
         <v>0.0002629240079523855</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000969932104753</v>
+        <v>0.0009699321047527132</v>
       </c>
       <c r="V4">
-        <v>1.000969932104753</v>
+        <v>0.0009699321047527132</v>
       </c>
       <c r="W4">
-        <v>1.003883495145631</v>
+        <v>0.003883495145631022</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1053,7 +1053,7 @@
         <v>2.105263157894737</v>
       </c>
       <c r="K5">
-        <v>67.79661016949153</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="L5">
         <v>0.01002355736084604</v>
@@ -1083,13 +1083,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000484496124031</v>
+        <v>0.0004844961240308976</v>
       </c>
       <c r="V5">
-        <v>1.000484496124031</v>
+        <v>0.0004844961240308976</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1124,7 +1124,7 @@
         <v>3.271613937891821</v>
       </c>
       <c r="K6">
-        <v>76.58964469777126</v>
+        <v>0.2658964469777126</v>
       </c>
       <c r="L6">
         <v>0.01730756184748628</v>
@@ -1154,13 +1154,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000677966101695</v>
+        <v>0.0006779661016949046</v>
       </c>
       <c r="V6">
-        <v>1.000677966101695</v>
+        <v>0.0006779661016949046</v>
       </c>
       <c r="W6">
-        <v>1.001934235976789</v>
+        <v>0.0019342359767891</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1195,7 +1195,7 @@
         <v>3.885482769469234</v>
       </c>
       <c r="K7">
-        <v>79.531193800349</v>
+        <v>0.29531193800349</v>
       </c>
       <c r="L7">
         <v>0.02264142586403856</v>
@@ -1225,13 +1225,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000612982320299</v>
+        <v>0.0006129823202993823</v>
       </c>
       <c r="V7">
-        <v>1.000612982320299</v>
+        <v>0.0006129823202993823</v>
       </c>
       <c r="W7">
-        <v>1.000965250965251</v>
+        <v>0.0009652509652509078</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1266,7 +1266,7 @@
         <v>5.824015921818958</v>
       </c>
       <c r="K8">
-        <v>85.34587240919791</v>
+        <v>0.3534587240919791</v>
       </c>
       <c r="L8">
         <v>0.02897681488781352</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000852122244997</v>
+        <v>0.0008521222449968668</v>
       </c>
       <c r="V8">
-        <v>1.000852122244997</v>
+        <v>0.0008521222449968668</v>
       </c>
       <c r="W8">
-        <v>1.002892960462874</v>
+        <v>0.002892960462873573</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1337,7 +1337,7 @@
         <v>5.824015921818959</v>
       </c>
       <c r="K9">
-        <v>85.34587240919791</v>
+        <v>0.3534587240919791</v>
       </c>
       <c r="L9">
         <v>0.03385035652510487</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000638547563164</v>
+        <v>0.0006385475631642823</v>
       </c>
       <c r="V9">
-        <v>1.000638547563164</v>
+        <v>0.0006385475631642823</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1408,7 +1408,7 @@
         <v>2.394770191177318</v>
       </c>
       <c r="K10">
-        <v>70.54292503808051</v>
+        <v>0.2054292503808051</v>
       </c>
       <c r="L10">
         <v>0.03555545875094687</v>
@@ -1438,13 +1438,13 @@
         <v>0.2291666666666288</v>
       </c>
       <c r="U10">
-        <v>1.000281701476921</v>
+        <v>0.0002817014769207482</v>
       </c>
       <c r="V10">
-        <v>1.000281701476921</v>
+        <v>0.0002817014769207482</v>
       </c>
       <c r="W10">
-        <v>0.9980769230769231</v>
+        <v>-0.001923076923076916</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1479,7 +1479,7 @@
         <v>1.241005267344432</v>
       </c>
       <c r="K11">
-        <v>55.37716869425346</v>
+        <v>0.05377168694253454</v>
       </c>
       <c r="L11">
         <v>0.0335685149376138</v>
@@ -1509,13 +1509,13 @@
         <v>0.5750000000000455</v>
       </c>
       <c r="U11">
-        <v>0.999935629224332</v>
+        <v>-6.437077566801008E-05</v>
       </c>
       <c r="V11">
-        <v>0.999935629224332</v>
+        <v>-6.437077566801008E-05</v>
       </c>
       <c r="W11">
-        <v>0.9971098265895953</v>
+        <v>-0.002890173410404651</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1550,7 +1550,7 @@
         <v>1.061552519286082</v>
       </c>
       <c r="K12">
-        <v>51.49286808631482</v>
+        <v>0.01492868086314825</v>
       </c>
       <c r="L12">
         <v>0.02950424276940682</v>
@@ -1580,13 +1580,13 @@
         <v>0.6477272727272521</v>
       </c>
       <c r="U12">
-        <v>0.9998595456301136</v>
+        <v>-0.0001404543698864114</v>
       </c>
       <c r="V12">
-        <v>0.9998595456301136</v>
+        <v>-0.0001404543698864114</v>
       </c>
       <c r="W12">
-        <v>0.9990338164251208</v>
+        <v>-0.0009661835748792091</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1621,7 +1621,7 @@
         <v>1.213765917976418</v>
       </c>
       <c r="K13">
-        <v>54.82810572338695</v>
+        <v>0.04828105723386944</v>
       </c>
       <c r="L13">
         <v>0.0253474989684668</v>
@@ -1651,13 +1651,13 @@
         <v>0.7291666666666288</v>
       </c>
       <c r="U13">
-        <v>0.9999634182031022</v>
+        <v>-3.65817968978055E-05</v>
       </c>
       <c r="V13">
-        <v>0.9999634182031022</v>
+        <v>-3.65817968978055E-05</v>
       </c>
       <c r="W13">
-        <v>1.000967117988395</v>
+        <v>0.0009671179883945502</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1692,7 +1692,7 @@
         <v>1.046147346283124</v>
       </c>
       <c r="K14">
-        <v>51.12766429961535</v>
+        <v>0.0112766429961535</v>
       </c>
       <c r="L14">
         <v>0.02091981205234891</v>
@@ -1722,13 +1722,13 @@
         <v>0.6586538461538112</v>
       </c>
       <c r="U14">
-        <v>0.9998947531341897</v>
+        <v>-0.0001052468658102601</v>
       </c>
       <c r="V14">
-        <v>0.9998947531341897</v>
+        <v>-0.0001052468658102601</v>
       </c>
       <c r="W14">
-        <v>0.9990338164251208</v>
+        <v>-0.0009661835748792091</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1763,7 +1763,7 @@
         <v>1.482246100999953</v>
       </c>
       <c r="K15">
-        <v>59.71390590170903</v>
+        <v>0.0971390590170903</v>
       </c>
       <c r="L15">
         <v>0.01810008165609263</v>
@@ -1793,13 +1793,13 @@
         <v>0.5982142857143344</v>
       </c>
       <c r="U15">
-        <v>1.000116756710857</v>
+        <v>0.0001167567108570911</v>
       </c>
       <c r="V15">
-        <v>1.000116756710857</v>
+        <v>0.0001167567108570911</v>
       </c>
       <c r="W15">
-        <v>1.002901353965184</v>
+        <v>0.002901353965183651</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1834,7 +1834,7 @@
         <v>1.635263207918139</v>
       </c>
       <c r="K16">
-        <v>62.05312634444583</v>
+        <v>0.1205312634444583</v>
       </c>
       <c r="L16">
         <v>0.01670334321268222</v>
@@ -1864,13 +1864,13 @@
         <v>0.3875000000000455</v>
       </c>
       <c r="U16">
-        <v>1.000165562913907</v>
+        <v>0.0001655629139072357</v>
       </c>
       <c r="V16">
-        <v>1.000165562913907</v>
+        <v>0.0001655629139072357</v>
       </c>
       <c r="W16">
-        <v>1.000964320154291</v>
+        <v>0.0009643201542912649</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1905,7 +1905,7 @@
         <v>1.236829403537739</v>
       </c>
       <c r="K17">
-        <v>55.29386378691134</v>
+        <v>0.05293863786911335</v>
       </c>
       <c r="L17">
         <v>0.01521036380450567</v>
@@ -1935,13 +1935,13 @@
         <v>0.125</v>
       </c>
       <c r="U17">
-        <v>1.000024140594824</v>
+        <v>2.414059482425124E-05</v>
       </c>
       <c r="V17">
-        <v>1.000257499678125</v>
+        <v>0.0002574996781254946</v>
       </c>
       <c r="W17">
-        <v>0.9980732177263969</v>
+        <v>-0.0019267822736031</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1976,7 +1976,7 @@
         <v>0.9843645753158529</v>
       </c>
       <c r="K18">
-        <v>49.60603447373933</v>
+        <v>-0.003939655262606701</v>
       </c>
       <c r="L18">
         <v>0.0128727245674771</v>
@@ -2006,13 +2006,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U18">
-        <v>0.99990769995385</v>
+        <v>-9.230004615001786E-05</v>
       </c>
       <c r="V18">
-        <v>1.000257433389111</v>
+        <v>0.0002574333891107727</v>
       </c>
       <c r="W18">
-        <v>0.9980694980694981</v>
+        <v>-0.001930501930501927</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2047,7 +2047,7 @@
         <v>0.8102660411273909</v>
       </c>
       <c r="K19">
-        <v>44.75950068768767</v>
+        <v>-0.0524049931231233</v>
       </c>
       <c r="L19">
         <v>0.009380028833600991</v>
@@ -2077,13 +2077,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U19">
-        <v>0.9998106490949026</v>
+        <v>-0.0001893509050974185</v>
       </c>
       <c r="V19">
-        <v>0.9998713164328914</v>
+        <v>-0.0001286835671086006</v>
       </c>
       <c r="W19">
-        <v>0.9980657640232108</v>
+        <v>-0.001934235976789211</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2118,7 +2118,7 @@
         <v>1.089524792707952</v>
       </c>
       <c r="K20">
-        <v>52.14222853493716</v>
+        <v>0.02142228534937163</v>
       </c>
       <c r="L20">
         <v>0.006669494559629554</v>
@@ -2148,13 +2148,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U20">
-        <v>0.9999830548683364</v>
+        <v>-1.694513166361489E-05</v>
       </c>
       <c r="V20">
-        <v>1.00006435006435</v>
+        <v>6.435006435001611E-05</v>
       </c>
       <c r="W20">
-        <v>1.002906976744186</v>
+        <v>0.002906976744186052</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2189,7 +2189,7 @@
         <v>1.187510319578325</v>
       </c>
       <c r="K21">
-        <v>54.28592994282354</v>
+        <v>0.04285929942823541</v>
       </c>
       <c r="L21">
         <v>0.004961283450381423</v>
@@ -2219,13 +2219,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U21">
-        <v>1.000033043566672</v>
+        <v>3.304356667177544E-05</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1.000966183574879</v>
+        <v>0.0009661835748793202</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2260,7 +2260,7 @@
         <v>1.290652979441875</v>
       </c>
       <c r="K22">
-        <v>56.34432587673523</v>
+        <v>0.06344325876735235</v>
       </c>
       <c r="L22">
         <v>0.004310803454817509</v>
@@ -2290,13 +2290,13 @@
         <v>-0.25</v>
       </c>
       <c r="U22">
-        <v>1.000075888760874</v>
+        <v>7.588876087449847E-05</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1.000965250965251</v>
+        <v>0.0009652509652509078</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2331,7 +2331,7 @@
         <v>1.399224200350875</v>
       </c>
       <c r="K23">
-        <v>58.3198602342476</v>
+        <v>0.083198602342476</v>
       </c>
       <c r="L23">
         <v>0.004676471228271823</v>
@@ -2361,13 +2361,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U23">
-        <v>1.000112883804937</v>
+        <v>0.000112883804936903</v>
       </c>
       <c r="V23">
-        <v>0.9998713081526287</v>
+        <v>-0.0001286918473712984</v>
       </c>
       <c r="W23">
-        <v>1.000964320154291</v>
+        <v>0.0009643201542912649</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2402,7 +2402,7 @@
         <v>1.041975977189005</v>
       </c>
       <c r="K24">
-        <v>51.02782739997729</v>
+        <v>0.01027827399977288</v>
       </c>
       <c r="L24">
         <v>0.004461002384965403</v>
@@ -2432,13 +2432,13 @@
         <v>-0.25</v>
       </c>
       <c r="U24">
-        <v>0.9999770986247725</v>
+        <v>-2.290137522753533E-05</v>
       </c>
       <c r="V24">
-        <v>0.9996782289722632</v>
+        <v>-0.0003217710277367836</v>
       </c>
       <c r="W24">
-        <v>0.9971098265895953</v>
+        <v>-0.002890173410404651</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2473,7 +2473,7 @@
         <v>1.221147054575422</v>
       </c>
       <c r="K25">
-        <v>54.97821731613566</v>
+        <v>0.04978217316135658</v>
       </c>
       <c r="L25">
         <v>0.004646706633403188</v>
@@ -2503,13 +2503,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U25">
-        <v>1.000059481322864</v>
+        <v>5.948132286448526E-05</v>
       </c>
       <c r="V25">
-        <v>0.9999356250804687</v>
+        <v>-6.437491953126262E-05</v>
       </c>
       <c r="W25">
-        <v>1.001932367149758</v>
+        <v>0.001932367149758418</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2544,7 +2544,7 @@
         <v>1.315447621620905</v>
       </c>
       <c r="K26">
-        <v>56.81180646617432</v>
+        <v>0.06811806466174319</v>
       </c>
       <c r="L26">
         <v>0.005405675379845866</v>
@@ -2574,13 +2574,13 @@
         <v>0.15625</v>
       </c>
       <c r="U26">
-        <v>1.000093345135592</v>
+        <v>9.334513559200452E-05</v>
       </c>
       <c r="V26">
-        <v>1.000193137191785</v>
+        <v>0.0001931371917853753</v>
       </c>
       <c r="W26">
-        <v>1.000964320154291</v>
+        <v>0.0009643201542912649</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2615,7 +2615,7 @@
         <v>1.414711376405623</v>
       </c>
       <c r="K27">
-        <v>58.58718314034977</v>
+        <v>0.08587183140349763</v>
       </c>
       <c r="L27">
         <v>0.006796843121632101</v>
@@ -2645,13 +2645,13 @@
         <v>0.46875</v>
       </c>
       <c r="U27">
-        <v>1.000123293206099</v>
+        <v>0.0001232932060986069</v>
       </c>
       <c r="V27">
-        <v>1.000321833161689</v>
+        <v>0.0003218331616889891</v>
       </c>
       <c r="W27">
-        <v>1.000963391136801</v>
+        <v>0.0009633911368014392</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2686,7 +2686,7 @@
         <v>1.280875091183428</v>
       </c>
       <c r="K28">
-        <v>56.15717827488958</v>
+        <v>0.06157178274889585</v>
       </c>
       <c r="L28">
         <v>0.008080427420182558</v>
@@ -2716,13 +2716,13 @@
         <v>0.53125</v>
       </c>
       <c r="U28">
-        <v>1.000078389629464</v>
+        <v>7.838962946449257E-05</v>
       </c>
       <c r="V28">
-        <v>1.000193037771057</v>
+        <v>0.0001930377710572806</v>
       </c>
       <c r="W28">
-        <v>0.9990375360923965</v>
+        <v>-0.0009624639076034613</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2757,7 +2757,7 @@
         <v>1.480039814933408</v>
       </c>
       <c r="K29">
-        <v>59.67806669963275</v>
+        <v>0.09678066699632748</v>
       </c>
       <c r="L29">
         <v>0.009907742639402825</v>
@@ -2787,13 +2787,13 @@
         <v>0.625</v>
       </c>
       <c r="U29">
-        <v>1.000141738557484</v>
+        <v>0.0001417385574844499</v>
       </c>
       <c r="V29">
-        <v>1.000386001029336</v>
+        <v>0.0003860010293361693</v>
       </c>
       <c r="W29">
-        <v>1.001926782273603</v>
+        <v>0.0019267822736031</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2828,7 +2828,7 @@
         <v>1.125958843365826</v>
       </c>
       <c r="K30">
-        <v>52.96240079526675</v>
+        <v>0.02962400795266751</v>
       </c>
       <c r="L30">
         <v>0.01082153409961227</v>
@@ -2858,13 +2858,13 @@
         <v>0.53125</v>
       </c>
       <c r="U30">
-        <v>1.00003209467692</v>
+        <v>3.20946769196695E-05</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>0.9971153846153846</v>
+        <v>-0.002884615384615374</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2899,7 +2899,7 @@
         <v>1.461730722307404</v>
       </c>
       <c r="K31">
-        <v>59.3781728058912</v>
+        <v>0.09378172805891205</v>
       </c>
       <c r="L31">
         <v>0.01252366425773092</v>
@@ -2929,13 +2929,13 @@
         <v>0.59375</v>
       </c>
       <c r="U31">
-        <v>1.000158645632253</v>
+        <v>0.000158645632252874</v>
       </c>
       <c r="V31">
-        <v>1.000192926045016</v>
+        <v>0.0001929260450159731</v>
       </c>
       <c r="W31">
-        <v>1.003857280617165</v>
+        <v>0.003857280617164838</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2970,7 +2970,7 @@
         <v>1.550091743081504</v>
       </c>
       <c r="K32">
-        <v>60.78572456410487</v>
+        <v>0.1078572456410487</v>
       </c>
       <c r="L32">
         <v>0.01489742526948727</v>
@@ -3000,13 +3000,13 @@
         <v>0.90625</v>
       </c>
       <c r="U32">
-        <v>1.000321677871779</v>
+        <v>0.0003216778717791691</v>
       </c>
       <c r="V32">
-        <v>1.000385777663473</v>
+        <v>0.0003857776634734744</v>
       </c>
       <c r="W32">
-        <v>1.000960614793468</v>
+        <v>0.0009606147934677622</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3041,7 +3041,7 @@
         <v>1.643103343896346</v>
       </c>
       <c r="K33">
-        <v>62.16568669896031</v>
+        <v>0.1216568669896031</v>
       </c>
       <c r="L33">
         <v>0.01782054953963763</v>
@@ -3071,13 +3071,13 @@
         <v>1.0625</v>
       </c>
       <c r="U33">
-        <v>1.000418046756922</v>
+        <v>0.0004180467569219193</v>
       </c>
       <c r="V33">
-        <v>1.000578443344688</v>
+        <v>0.0005784433446878179</v>
       </c>
       <c r="W33">
-        <v>1.000959692898272</v>
+        <v>0.0009596928982724684</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3112,7 +3112,7 @@
         <v>1.741010292122495</v>
       </c>
       <c r="K34">
-        <v>63.51710160031349</v>
+        <v>0.1351710160031349</v>
       </c>
       <c r="L34">
         <v>0.02117327496129113</v>
@@ -3142,13 +3142,13 @@
         <v>1.125</v>
       </c>
       <c r="U34">
-        <v>1.00032144005143</v>
+        <v>0.0003214400514304216</v>
       </c>
       <c r="V34">
-        <v>1.000770811921891</v>
+        <v>0.0007708119218912124</v>
       </c>
       <c r="W34">
-        <v>1.000958772770853</v>
+        <v>0.0009587727708533222</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3183,7 +3183,7 @@
         <v>1.443480291727485</v>
       </c>
       <c r="K35">
-        <v>59.07476711043891</v>
+        <v>0.09074767110438908</v>
       </c>
       <c r="L35">
         <v>0.02377864029022997</v>
@@ -3213,13 +3213,13 @@
         <v>1</v>
       </c>
       <c r="U35">
-        <v>1.00025706940874</v>
+        <v>0.0002570694087402625</v>
       </c>
       <c r="V35">
-        <v>1.000449293966624</v>
+        <v>0.0004492939666238538</v>
       </c>
       <c r="W35">
-        <v>0.9980842911877394</v>
+        <v>-0.001915708812260553</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3254,7 +3254,7 @@
         <v>1.443480291727485</v>
       </c>
       <c r="K36">
-        <v>59.07476711043891</v>
+        <v>0.09074767110438908</v>
       </c>
       <c r="L36">
         <v>0.02567764908051395</v>
@@ -3284,13 +3284,13 @@
         <v>1.03125</v>
       </c>
       <c r="U36">
-        <v>1.000192752505783</v>
+        <v>0.0001927525057825452</v>
       </c>
       <c r="V36">
-        <v>1.000384936164753</v>
+        <v>0.0003849361647525473</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3325,7 +3325,7 @@
         <v>1.318633779290898</v>
       </c>
       <c r="K37">
-        <v>56.87115365386303</v>
+        <v>0.06871153653863027</v>
       </c>
       <c r="L37">
         <v>0.02657994626065326</v>
@@ -3355,13 +3355,13 @@
         <v>0.9375</v>
       </c>
       <c r="U37">
-        <v>1.000128476906276</v>
+        <v>0.0001284769062761537</v>
       </c>
       <c r="V37">
-        <v>1.000256525363945</v>
+        <v>0.0002565253639452703</v>
       </c>
       <c r="W37">
-        <v>0.9990403071017274</v>
+        <v>-0.0009596928982725794</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3396,7 +3396,7 @@
         <v>1.409675813093052</v>
       </c>
       <c r="K38">
-        <v>58.50064168107313</v>
+        <v>0.08500641681073129</v>
       </c>
       <c r="L38">
         <v>0.02707847778617833</v>
@@ -3426,13 +3426,13 @@
         <v>1.09375</v>
       </c>
       <c r="U38">
-        <v>1.000064230201041</v>
+        <v>6.423020104051602E-05</v>
       </c>
       <c r="V38">
-        <v>1.000256459575559</v>
+        <v>0.0002564595755594201</v>
       </c>
       <c r="W38">
-        <v>1.000960614793468</v>
+        <v>0.0009606147934677622</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3467,7 +3467,7 @@
         <v>1.409675813093052</v>
       </c>
       <c r="K39">
-        <v>58.50064168107313</v>
+        <v>0.08500641681073129</v>
       </c>
       <c r="L39">
         <v>0.02720162089202964</v>
@@ -3497,13 +3497,13 @@
         <v>1.03125</v>
       </c>
       <c r="U39">
-        <v>1.000064226075787</v>
+        <v>6.422607578682182E-05</v>
       </c>
       <c r="V39">
-        <v>1.000448689186591</v>
+        <v>0.0004486891865906895</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3538,7 +3538,7 @@
         <v>1.17301411602575</v>
       </c>
       <c r="K40">
-        <v>53.98097082641546</v>
+        <v>0.03980970826415453</v>
       </c>
       <c r="L40">
         <v>0.02628540136066921</v>
@@ -3568,13 +3568,13 @@
         <v>0.75</v>
       </c>
       <c r="U40">
-        <v>1.000064221951063</v>
+        <v>6.422195106292605E-05</v>
       </c>
       <c r="V40">
-        <v>1.000192209123526</v>
+        <v>0.0001922091235264656</v>
       </c>
       <c r="W40">
-        <v>0.9980806142034548</v>
+        <v>-0.001919385796545159</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3609,7 +3609,7 @@
         <v>1.077781472713123</v>
       </c>
       <c r="K41">
-        <v>51.87174334102511</v>
+        <v>0.01871743341025112</v>
       </c>
       <c r="L41">
         <v>0.02435194832271266</v>
@@ -3639,13 +3639,13 @@
         <v>0.4375</v>
       </c>
       <c r="U41">
-        <v>1.000128435653737</v>
+        <v>0.0001284356537374354</v>
       </c>
       <c r="V41">
-        <v>1.000064057395426</v>
+        <v>6.405739542625355E-05</v>
       </c>
       <c r="W41">
-        <v>0.9990384615384615</v>
+        <v>-0.0009615384615384581</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3680,7 +3680,7 @@
         <v>1.16324070660294</v>
       </c>
       <c r="K42">
-        <v>53.77305923711298</v>
+        <v>0.03773059237112986</v>
       </c>
       <c r="L42">
         <v>0.02219066719083852</v>
@@ -3710,13 +3710,13 @@
         <v>0.125</v>
       </c>
       <c r="U42">
-        <v>1.000192628740208</v>
+        <v>0.0001926287402080895</v>
       </c>
       <c r="V42">
-        <v>1.000064053292339</v>
+        <v>6.405329233927226E-05</v>
       </c>
       <c r="W42">
-        <v>1.000962463907604</v>
+        <v>0.0009624639076035724</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3751,7 +3751,7 @@
         <v>1.067235324293205</v>
       </c>
       <c r="K43">
-        <v>51.62621360768864</v>
+        <v>0.01626213607688642</v>
       </c>
       <c r="L43">
         <v>0.01959740791526826</v>
@@ -3781,13 +3781,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U43">
-        <v>1.000128394427682</v>
+        <v>0.000128394427681755</v>
       </c>
       <c r="V43">
-        <v>1.000064049189778</v>
+        <v>6.404918977787055E-05</v>
       </c>
       <c r="W43">
-        <v>0.9990384615384615</v>
+        <v>-0.0009615384615384581</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3822,7 +3822,7 @@
         <v>0.9819287755819718</v>
       </c>
       <c r="K44">
-        <v>49.54410005443506</v>
+        <v>-0.00455899945564936</v>
       </c>
       <c r="L44">
         <v>0.01648607290159644</v>
@@ -3852,13 +3852,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U44">
-        <v>1.000128377944669</v>
+        <v>0.0001283779446692446</v>
       </c>
       <c r="V44">
-        <v>0.9998719098245163</v>
+        <v>-0.0001280901754836528</v>
       </c>
       <c r="W44">
-        <v>0.9990375360923965</v>
+        <v>-0.0009624639076034613</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3893,7 +3893,7 @@
         <v>1.150207251791378</v>
       </c>
       <c r="K45">
-        <v>53.49285520421898</v>
+        <v>0.03492855204218981</v>
       </c>
       <c r="L45">
         <v>0.01390257500512409</v>
@@ -3923,13 +3923,13 @@
         <v>-0.375</v>
       </c>
       <c r="U45">
-        <v>1.000096271099416</v>
+        <v>9.627109941590106E-05</v>
       </c>
       <c r="V45">
-        <v>1.000192159877018</v>
+        <v>0.0001921598770178168</v>
       </c>
       <c r="W45">
-        <v>1.001926782273603</v>
+        <v>0.0019267822736031</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3964,7 +3964,7 @@
         <v>1.150207251791378</v>
       </c>
       <c r="K46">
-        <v>53.49285520421898</v>
+        <v>0.03492855204218981</v>
       </c>
       <c r="L46">
         <v>0.01175265948083426</v>
@@ -3994,13 +3994,13 @@
         <v>-0.59375</v>
       </c>
       <c r="U46">
-        <v>1.000064174554789</v>
+        <v>6.417455478913148E-05</v>
       </c>
       <c r="V46">
-        <v>0.9999359590137689</v>
+        <v>-6.404098623113974E-05</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4035,7 +4035,7 @@
         <v>1.150207251791378</v>
       </c>
       <c r="K47">
-        <v>53.49285520421898</v>
+        <v>0.03492855204218981</v>
       </c>
       <c r="L47">
         <v>0.009959486890549433</v>
@@ -4065,13 +4065,13 @@
         <v>-0.6875</v>
       </c>
       <c r="U47">
-        <v>1.000128340873359</v>
+        <v>0.0001283408733594449</v>
       </c>
       <c r="V47">
-        <v>0.9998719098245163</v>
+        <v>-0.0001280901754836528</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4106,7 +4106,7 @@
         <v>1.34647898377494</v>
       </c>
       <c r="K48">
-        <v>57.38295518883224</v>
+        <v>0.07382955188832241</v>
       </c>
       <c r="L48">
         <v>0.009161846362738257</v>
@@ -4136,13 +4136,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U48">
-        <v>1.000256648808187</v>
+        <v>0.0002566488081869878</v>
       </c>
       <c r="V48">
-        <v>0.9999359467076608</v>
+        <v>-6.405329233916124E-05</v>
       </c>
       <c r="W48">
-        <v>1.001923076923077</v>
+        <v>0.001923076923076916</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4177,7 +4177,7 @@
         <v>1.553080806915532</v>
       </c>
       <c r="K49">
-        <v>60.83163536025576</v>
+        <v>0.1083163536025576</v>
       </c>
       <c r="L49">
         <v>0.009685485182866698</v>
@@ -4207,13 +4207,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U49">
-        <v>1.000384874434716</v>
+        <v>0.0003848744347156874</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>1.001919385796545</v>
+        <v>0.001919385796545159</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4248,7 +4248,7 @@
         <v>1.171064024167171</v>
       </c>
       <c r="K50">
-        <v>53.93963564093398</v>
+        <v>0.03939635640933981</v>
       </c>
       <c r="L50">
         <v>0.009888317213397894</v>
@@ -4278,13 +4278,13 @@
         <v>-0.125</v>
       </c>
       <c r="U50">
-        <v>1.000192363181687</v>
+        <v>0.0001923631816871385</v>
       </c>
       <c r="V50">
-        <v>0.9999359426045737</v>
+        <v>-6.405739542625355E-05</v>
       </c>
       <c r="W50">
-        <v>0.9971264367816092</v>
+        <v>-0.002873563218390829</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4319,7 +4319,7 @@
         <v>0.9302135762120105</v>
       </c>
       <c r="K51">
-        <v>48.19226160648648</v>
+        <v>-0.01807738393513519</v>
       </c>
       <c r="L51">
         <v>0.008796439194626736</v>
@@ -4349,13 +4349,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U51">
-        <v>1.000064108728403</v>
+        <v>6.410872840323378E-05</v>
       </c>
       <c r="V51">
-        <v>0.9997437540038437</v>
+        <v>-0.0002562459961562569</v>
       </c>
       <c r="W51">
-        <v>0.9971181556195965</v>
+        <v>-0.002881844380403509</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4390,7 +4390,7 @@
         <v>0.8128903675333788</v>
       </c>
       <c r="K52">
-        <v>44.83946641734318</v>
+        <v>-0.05160533582656818</v>
       </c>
       <c r="L52">
         <v>0.006257579251899951</v>
@@ -4420,13 +4420,13 @@
         <v>0</v>
       </c>
       <c r="U52">
-        <v>0.9999679476906311</v>
+        <v>-3.205230936886849E-05</v>
       </c>
       <c r="V52">
-        <v>0.9996796104062539</v>
+        <v>-0.0003203895937461398</v>
       </c>
       <c r="W52">
-        <v>0.9980732177263969</v>
+        <v>-0.0019267822736031</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4461,7 +4461,7 @@
         <v>0.8128903675333787</v>
       </c>
       <c r="K53">
-        <v>44.83946641734318</v>
+        <v>-0.05160533582656818</v>
       </c>
       <c r="L53">
         <v>0.002981838210594454</v>
@@ -4491,13 +4491,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U53">
-        <v>0.9999358933264951</v>
+        <v>-6.41066735048712E-05</v>
       </c>
       <c r="V53">
-        <v>0.9996154092686368</v>
+        <v>-0.0003845907313632102</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4532,7 +4532,7 @@
         <v>0.8128903675333787</v>
       </c>
       <c r="K54">
-        <v>44.83946641734318</v>
+        <v>-0.05160533582656818</v>
       </c>
       <c r="L54">
         <v>-0.0005421519253686193</v>
@@ -4562,13 +4562,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U54">
-        <v>1.000032055391717</v>
+        <v>3.205539171702299E-05</v>
       </c>
       <c r="V54">
-        <v>0.9996152613016992</v>
+        <v>-0.0003847386983008017</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4603,7 +4603,7 @@
         <v>0.9599963864664915</v>
       </c>
       <c r="K55">
-        <v>48.97949777331917</v>
+        <v>-0.01020502226680825</v>
       </c>
       <c r="L55">
         <v>-0.003289431510570066</v>
@@ -4633,13 +4633,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U55">
-        <v>1.000032054364202</v>
+        <v>3.205436420161689E-05</v>
       </c>
       <c r="V55">
-        <v>0.9998717044069537</v>
+        <v>-0.0001282955930462792</v>
       </c>
       <c r="W55">
-        <v>1.001930501930502</v>
+        <v>0.001930501930502038</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4674,7 +4674,7 @@
         <v>1.037420606957603</v>
       </c>
       <c r="K56">
-        <v>50.91833288693104</v>
+        <v>0.009183328869310392</v>
       </c>
       <c r="L56">
         <v>-0.005029055485516169</v>
@@ -4704,13 +4704,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U56">
-        <v>1.000032053336752</v>
+        <v>3.205333675238009E-05</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>1.000963391136801</v>
+        <v>0.0009633911368014392</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4745,7 +4745,7 @@
         <v>1.037420606957603</v>
       </c>
       <c r="K57">
-        <v>50.91833288693104</v>
+        <v>0.009183328869310392</v>
       </c>
       <c r="L57">
         <v>-0.006029194169257988</v>
@@ -4775,13 +4775,13 @@
         <v>-0.625</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>0.9999358439725411</v>
+        <v>-6.415602745890592E-05</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4816,7 +4816,7 @@
         <v>1.123209216920054</v>
       </c>
       <c r="K58">
-        <v>52.90148554222044</v>
+        <v>0.02901485542220439</v>
       </c>
       <c r="L58">
         <v>-0.006145395923194668</v>
@@ -4846,13 +4846,13 @@
         <v>-0.6875</v>
       </c>
       <c r="U58">
-        <v>1.000064104618738</v>
+        <v>6.410461873773698E-05</v>
       </c>
       <c r="V58">
-        <v>1.000064160143719</v>
+        <v>6.416014371879442E-05</v>
       </c>
       <c r="W58">
-        <v>1.000962463907604</v>
+        <v>0.0009624639076035724</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4887,7 +4887,7 @@
         <v>1.030180044278276</v>
       </c>
       <c r="K59">
-        <v>50.74328492104267</v>
+        <v>0.007432849210426751</v>
       </c>
       <c r="L59">
         <v>-0.006046584293093227</v>
@@ -4917,13 +4917,13 @@
         <v>-0.625</v>
       </c>
       <c r="U59">
-        <v>0.9999679497452005</v>
+        <v>-3.205025479946499E-05</v>
       </c>
       <c r="V59">
-        <v>1.000064156027459</v>
+        <v>6.41560274587949E-05</v>
       </c>
       <c r="W59">
-        <v>0.9990384615384615</v>
+        <v>-0.0009615384615384581</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4958,7 +4958,7 @@
         <v>1.030180044278276</v>
       </c>
       <c r="K60">
-        <v>50.74328492104267</v>
+        <v>0.007432849210426751</v>
       </c>
       <c r="L60">
         <v>-0.005801785324714969</v>
@@ -4988,13 +4988,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U60">
-        <v>1.000064102564103</v>
+        <v>6.410256410260828E-05</v>
       </c>
       <c r="V60">
-        <v>0.9999358480882731</v>
+        <v>-6.415191172692847E-05</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5029,7 +5029,7 @@
         <v>0.9435851316479603</v>
       </c>
       <c r="K61">
-        <v>48.54869057615691</v>
+        <v>-0.01451309423843083</v>
       </c>
       <c r="L61">
         <v>-0.005813347661912131</v>
@@ -5059,13 +5059,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U61">
-        <v>0.9999038523171593</v>
+        <v>-9.614768284071928E-05</v>
       </c>
       <c r="V61">
-        <v>0.9998716879450823</v>
+        <v>-0.0001283120549177008</v>
       </c>
       <c r="W61">
-        <v>0.9990375360923965</v>
+        <v>-0.0009624639076034613</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5100,7 +5100,7 @@
         <v>0.8668815895191414</v>
       </c>
       <c r="K62">
-        <v>46.434738785036</v>
+        <v>-0.03565261214963994</v>
       </c>
       <c r="L62">
         <v>-0.006308709750769595</v>
@@ -5130,13 +5130,13 @@
         <v>-0.125</v>
       </c>
       <c r="U62">
-        <v>0.9998397384531554</v>
+        <v>-0.0001602615468445645</v>
       </c>
       <c r="V62">
-        <v>0.9998075072184792</v>
+        <v>-0.0001924927815207811</v>
       </c>
       <c r="W62">
-        <v>0.9990366088631984</v>
+        <v>-0.0009633911368015502</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5171,7 +5171,7 @@
         <v>0.8668815895191414</v>
       </c>
       <c r="K63">
-        <v>46.434738785036</v>
+        <v>-0.03565261214963994</v>
       </c>
       <c r="L63">
         <v>-0.007042733389747625</v>
@@ -5201,13 +5201,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U63">
-        <v>0.9998076553183304</v>
+        <v>-0.0001923446816696206</v>
       </c>
       <c r="V63">
-        <v>0.9996791169297908</v>
+        <v>-0.0003208830702091658</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5242,7 +5242,7 @@
         <v>0.7952520865514726</v>
       </c>
       <c r="K64">
-        <v>44.29751634931029</v>
+        <v>-0.05702483650689716</v>
       </c>
       <c r="L64">
         <v>-0.008199422268067382</v>
@@ -5272,13 +5272,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U64">
-        <v>0.9997434910863152</v>
+        <v>-0.0002565089136847831</v>
       </c>
       <c r="V64">
-        <v>0.9994864222892726</v>
+        <v>-0.0005135777107273531</v>
       </c>
       <c r="W64">
-        <v>0.9990356798457087</v>
+        <v>-0.0009643201542912649</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5313,7 +5313,7 @@
         <v>0.8822299134192649</v>
       </c>
       <c r="K65">
-        <v>46.87152760294853</v>
+        <v>-0.03128472397051474</v>
       </c>
       <c r="L65">
         <v>-0.009158399600023034</v>
@@ -5343,13 +5343,13 @@
         <v>0</v>
       </c>
       <c r="U65">
-        <v>0.9998396407953818</v>
+        <v>-0.0001603592046182101</v>
       </c>
       <c r="V65">
-        <v>0.9997430791958379</v>
+        <v>-0.0002569208041620641</v>
       </c>
       <c r="W65">
-        <v>1.000965250965251</v>
+        <v>0.0009652509652509078</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5384,7 +5384,7 @@
         <v>0.8082317635275302</v>
       </c>
       <c r="K66">
-        <v>44.69735461071746</v>
+        <v>-0.0530264538928254</v>
       </c>
       <c r="L66">
         <v>-0.01025369139322099</v>
@@ -5414,13 +5414,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U66">
-        <v>0.9998075380914193</v>
+        <v>-0.0001924619085806878</v>
       </c>
       <c r="V66">
-        <v>0.9998715065852875</v>
+        <v>-0.0001284934147125494</v>
       </c>
       <c r="W66">
-        <v>0.9990356798457087</v>
+        <v>-0.0009643201542912649</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5455,7 +5455,7 @@
         <v>0.742661575125499</v>
       </c>
       <c r="K67">
-        <v>42.6165117614426</v>
+        <v>-0.07383488238557406</v>
       </c>
       <c r="L67">
         <v>-0.01167511900553951</v>
@@ -5485,13 +5485,13 @@
         <v>-0.25</v>
       </c>
       <c r="U67">
-        <v>0.9998075010427027</v>
+        <v>-0.0001924989572973379</v>
       </c>
       <c r="V67">
-        <v>0.9999357450363041</v>
+        <v>-6.425496369588668E-05</v>
       </c>
       <c r="W67">
-        <v>0.999034749034749</v>
+        <v>-0.0009652509652510188</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5526,7 +5526,7 @@
         <v>0.9134572653326323</v>
       </c>
       <c r="K68">
-        <v>47.73857675749232</v>
+        <v>-0.02261423242507676</v>
       </c>
       <c r="L68">
         <v>-0.01246035663654899</v>
@@ -5556,13 +5556,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U68">
-        <v>0.9998395533164329</v>
+        <v>-0.0001604466835670726</v>
       </c>
       <c r="V68">
-        <v>1.000064259092662</v>
+        <v>6.425909266161156E-05</v>
       </c>
       <c r="W68">
-        <v>1.001932367149758</v>
+        <v>0.001932367149758418</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5597,7 +5597,7 @@
         <v>0.8381168708914974</v>
       </c>
       <c r="K69">
-        <v>45.59649520462787</v>
+        <v>-0.04403504795372126</v>
       </c>
       <c r="L69">
         <v>-0.01311534606941594</v>
@@ -5627,13 +5627,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U69">
-        <v>0.9998074330829965</v>
+        <v>-0.0001925669170035338</v>
       </c>
       <c r="V69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>0.9990356798457087</v>
+        <v>-0.0009643201542912649</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5668,7 +5668,7 @@
         <v>0.7711649087815103</v>
       </c>
       <c r="K70">
-        <v>43.53998348533455</v>
+        <v>-0.06460016514665456</v>
       </c>
       <c r="L70">
         <v>-0.01395268370203815</v>
@@ -5698,13 +5698,13 @@
         <v>-0.625</v>
       </c>
       <c r="U70">
-        <v>0.9998394966615305</v>
+        <v>-0.0001605033384695087</v>
       </c>
       <c r="V70">
-        <v>0.9998072351089121</v>
+        <v>-0.0001927648910878821</v>
       </c>
       <c r="W70">
-        <v>0.999034749034749</v>
+        <v>-0.0009652509652510188</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5739,7 +5739,7 @@
         <v>0.7711649087815102</v>
       </c>
       <c r="K71">
-        <v>43.53998348533455</v>
+        <v>-0.06460016514665456</v>
       </c>
       <c r="L71">
         <v>-0.01479662350726461</v>
@@ -5769,13 +5769,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U71">
-        <v>0.9998715767168587</v>
+        <v>-0.0001284232831413323</v>
       </c>
       <c r="V71">
-        <v>0.9997429305912596</v>
+        <v>-0.0002570694087403735</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5810,7 +5810,7 @@
         <v>0.8596788167391711</v>
       </c>
       <c r="K72">
-        <v>46.22727370990671</v>
+        <v>-0.03772726290093287</v>
       </c>
       <c r="L72">
         <v>-0.01518647497826566</v>
@@ -5840,13 +5840,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U72">
-        <v>0.9998715602222009</v>
+        <v>-0.0001284397777990831</v>
       </c>
       <c r="V72">
-        <v>0.9998071483671894</v>
+        <v>-0.0001928516328105756</v>
       </c>
       <c r="W72">
-        <v>1.000966183574879</v>
+        <v>0.0009661835748793202</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5881,7 +5881,7 @@
         <v>0.7864072591077022</v>
       </c>
       <c r="K73">
-        <v>44.0217232155957</v>
+        <v>-0.05978276784404302</v>
       </c>
       <c r="L73">
         <v>-0.01557187369803192</v>
@@ -5911,13 +5911,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U73">
-        <v>0.9998715437233051</v>
+        <v>-0.0001284562766948882</v>
       </c>
       <c r="V73">
-        <v>0.9996785186137723</v>
+        <v>-0.0003214813862276733</v>
       </c>
       <c r="W73">
-        <v>0.999034749034749</v>
+        <v>-0.0009652509652510188</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5952,7 +5952,7 @@
         <v>0.87612443475488</v>
       </c>
       <c r="K74">
-        <v>46.69863141936786</v>
+        <v>-0.03301368580632141</v>
       </c>
       <c r="L74">
         <v>-0.01552271680584646</v>
@@ -5982,13 +5982,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U74">
-        <v>0.9999357636100852</v>
+        <v>-6.423638991481795E-05</v>
       </c>
       <c r="V74">
-        <v>0.9998070491381528</v>
+        <v>-0.0001929508618472298</v>
       </c>
       <c r="W74">
-        <v>1.000966183574879</v>
+        <v>0.0009661835748793202</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6023,7 +6023,7 @@
         <v>0.8761244347548799</v>
       </c>
       <c r="K75">
-        <v>46.69863141936786</v>
+        <v>-0.03301368580632141</v>
       </c>
       <c r="L75">
         <v>-0.01515687929443739</v>
@@ -6053,13 +6053,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U75">
-        <v>0.9998715189670127</v>
+        <v>-0.0001284810329873487</v>
       </c>
       <c r="V75">
-        <v>0.9998070119009329</v>
+        <v>-0.0001929880990670929</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6094,7 +6094,7 @@
         <v>0.9755340476603401</v>
       </c>
       <c r="K76">
-        <v>49.38077624203351</v>
+        <v>-0.006192237579664861</v>
       </c>
       <c r="L76">
         <v>-0.01421636915966113</v>
@@ -6124,13 +6124,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U76">
-        <v>0.9999036268431365</v>
+        <v>-9.637315686350512E-05</v>
       </c>
       <c r="V76">
-        <v>0.9999356582164456</v>
+        <v>-6.434178355441134E-05</v>
       </c>
       <c r="W76">
-        <v>1.000965250965251</v>
+        <v>0.0009652509652509078</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6165,7 +6165,7 @@
         <v>0.883122599488531</v>
       </c>
       <c r="K77">
-        <v>46.89671292396964</v>
+        <v>-0.03103287076030353</v>
       </c>
       <c r="L77">
         <v>-0.01328662125651421</v>
@@ -6195,13 +6195,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U77">
-        <v>0.9998714900726082</v>
+        <v>-0.0001285099273917734</v>
       </c>
       <c r="V77">
-        <v>0.9999356540763144</v>
+        <v>-6.434592368564918E-05</v>
       </c>
       <c r="W77">
-        <v>0.9990356798457087</v>
+        <v>-0.0009643201542912649</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6236,7 +6236,7 @@
         <v>0.8831225994885311</v>
       </c>
       <c r="K78">
-        <v>46.89671292396964</v>
+        <v>-0.03103287076030353</v>
       </c>
       <c r="L78">
         <v>-0.01237425922951692</v>
@@ -6266,13 +6266,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U78">
-        <v>0.999807210333526</v>
+        <v>-0.0001927896664739581</v>
       </c>
       <c r="V78">
-        <v>0.99993564993565</v>
+        <v>-6.435006435001611E-05</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6307,7 +6307,7 @@
         <v>1.093048550650636</v>
       </c>
       <c r="K79">
-        <v>52.22279962454075</v>
+        <v>0.0222279962454075</v>
       </c>
       <c r="L79">
         <v>-0.01078341721272082</v>
@@ -6337,13 +6337,13 @@
         <v>0.09375</v>
       </c>
       <c r="U79">
-        <v>0.9998071731585036</v>
+        <v>-0.0001928268414963519</v>
       </c>
       <c r="V79">
-        <v>1.000128708411095</v>
+        <v>0.0001287084110945802</v>
       </c>
       <c r="W79">
-        <v>1.001930501930502</v>
+        <v>0.001930501930502038</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6378,7 +6378,7 @@
         <v>0.9842962711996371</v>
       </c>
       <c r="K80">
-        <v>49.60429979564319</v>
+        <v>-0.003957002043568081</v>
       </c>
       <c r="L80">
         <v>-0.009194457042061907</v>
@@ -6408,13 +6408,13 @@
         <v>0.125</v>
       </c>
       <c r="U80">
-        <v>0.9998714239794277</v>
+        <v>-0.0001285760205722575</v>
       </c>
       <c r="V80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W80">
-        <v>0.9990366088631984</v>
+        <v>-0.0009633911368015502</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6449,7 +6449,7 @@
         <v>0.9842962711996371</v>
       </c>
       <c r="K81">
-        <v>49.60429979564319</v>
+        <v>-0.003957002043568081</v>
       </c>
       <c r="L81">
         <v>-0.007674355042584932</v>
@@ -6479,13 +6479,13 @@
         <v>0.25</v>
       </c>
       <c r="U81">
-        <v>0.9999678518613773</v>
+        <v>-3.214813862273402E-05</v>
       </c>
       <c r="V81">
-        <v>1.000064345923686</v>
+        <v>6.434592368598224E-05</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6520,7 +6520,7 @@
         <v>0.9842962711996371</v>
       </c>
       <c r="K82">
-        <v>49.60429979564319</v>
+        <v>-0.003957002043568081</v>
       </c>
       <c r="L82">
         <v>-0.006264860476593497</v>
@@ -6550,13 +6550,13 @@
         <v>0.28125</v>
       </c>
       <c r="U82">
-        <v>1.000032149172159</v>
+        <v>3.214917215887958E-05</v>
       </c>
       <c r="V82">
-        <v>1.000128683567108</v>
+        <v>0.0001286835671083786</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6591,7 +6591,7 @@
         <v>1.216387162109523</v>
       </c>
       <c r="K83">
-        <v>54.8815289541645</v>
+        <v>0.04881528954164505</v>
       </c>
       <c r="L83">
         <v>-0.00428704044394956</v>
@@ -6621,13 +6621,13 @@
         <v>0.34375</v>
       </c>
       <c r="U83">
-        <v>1.000096444415868</v>
+        <v>9.644441586842412E-05</v>
       </c>
       <c r="V83">
-        <v>1.000128667009779</v>
+        <v>0.0001286670097788711</v>
       </c>
       <c r="W83">
-        <v>1.001928640308583</v>
+        <v>0.00192864030858253</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6662,7 +6662,7 @@
         <v>1.216387162109523</v>
       </c>
       <c r="K84">
-        <v>54.8815289541645</v>
+        <v>0.04881528954164505</v>
       </c>
       <c r="L84">
         <v>-0.002075231688437796</v>
@@ -6692,13 +6692,13 @@
         <v>0.40625</v>
       </c>
       <c r="U84">
-        <v>1.00009643511524</v>
+        <v>9.643511523993453E-05</v>
       </c>
       <c r="V84">
-        <v>1.000192975685064</v>
+        <v>0.0001929756850636011</v>
       </c>
       <c r="W84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6733,7 +6733,7 @@
         <v>1.077801112068698</v>
       </c>
       <c r="K85">
-        <v>51.87219824883136</v>
+        <v>0.01872198248831358</v>
       </c>
       <c r="L85">
         <v>-0.0002062423018430882</v>
@@ -6763,13 +6763,13 @@
         <v>0.46875</v>
       </c>
       <c r="U85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V85">
-        <v>1.000192938452634</v>
+        <v>0.0001929384526335731</v>
       </c>
       <c r="W85">
-        <v>0.9990375360923965</v>
+        <v>-0.0009624639076034613</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6804,7 +6804,7 @@
         <v>0.962383460307773</v>
       </c>
       <c r="K86">
-        <v>49.04155990780907</v>
+        <v>-0.00958440092190932</v>
       </c>
       <c r="L86">
         <v>0.0009854550282497451</v>
@@ -6834,13 +6834,13 @@
         <v>0.46875</v>
       </c>
       <c r="U86">
-        <v>0.9999357161223965</v>
+        <v>-6.428387760348819E-05</v>
       </c>
       <c r="V86">
-        <v>1.000128600823045</v>
+        <v>0.0001286008230454438</v>
       </c>
       <c r="W86">
-        <v>0.9990366088631984</v>
+        <v>-0.0009633911368015502</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6875,7 +6875,7 @@
         <v>0.6633058887122451</v>
       </c>
       <c r="K87">
-        <v>39.87876753239813</v>
+        <v>-0.1012123246760187</v>
       </c>
       <c r="L87">
         <v>0.0002825300551197088</v>
@@ -6905,13 +6905,13 @@
         <v>0.21875</v>
       </c>
       <c r="U87">
-        <v>0.9998071359691417</v>
+        <v>-0.0001928640308582752</v>
       </c>
       <c r="V87">
-        <v>0.9998071235694997</v>
+        <v>-0.000192876430500255</v>
       </c>
       <c r="W87">
-        <v>0.9961427193828351</v>
+        <v>-0.003857280617164949</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6946,7 +6946,7 @@
         <v>0.6633058887122451</v>
       </c>
       <c r="K88">
-        <v>39.87876753239813</v>
+        <v>-0.1012123246760187</v>
       </c>
       <c r="L88">
         <v>-0.001524415385213503</v>
@@ -6976,13 +6976,13 @@
         <v>0.0625</v>
       </c>
       <c r="U88">
-        <v>0.9997749485596708</v>
+        <v>-0.0002250514403292492</v>
       </c>
       <c r="V88">
-        <v>0.999871390907337</v>
+        <v>-0.0001286090926629901</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7017,7 +7017,7 @@
         <v>0.7493910887993797</v>
       </c>
       <c r="K89">
-        <v>42.83725312181008</v>
+        <v>-0.07162746878189918</v>
       </c>
       <c r="L89">
         <v>-0.003528387539758527</v>
@@ -7047,13 +7047,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U89">
-        <v>0.9998392127857995</v>
+        <v>-0.0001607872142005418</v>
       </c>
       <c r="V89">
-        <v>0.999871374364911</v>
+        <v>-0.0001286256350889747</v>
       </c>
       <c r="W89">
-        <v>1.000968054211036</v>
+        <v>0.0009680542110357404</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7088,7 +7088,7 @@
         <v>0.687126439311688</v>
       </c>
       <c r="K90">
-        <v>40.72761965558557</v>
+        <v>-0.09272380344414427</v>
       </c>
       <c r="L90">
         <v>-0.005862517074188511</v>
@@ -7118,13 +7118,13 @@
         <v>-0.25</v>
       </c>
       <c r="U90">
-        <v>0.9998070243149363</v>
+        <v>-0.0001929756850637121</v>
       </c>
       <c r="V90">
-        <v>0.9998070367273428</v>
+        <v>-0.0001929632726571651</v>
       </c>
       <c r="W90">
-        <v>0.9990328820116054</v>
+        <v>-0.0009671179883945502</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7159,7 +7159,7 @@
         <v>0.7745864282045897</v>
       </c>
       <c r="K91">
-        <v>43.64884211293476</v>
+        <v>-0.0635115788706524</v>
       </c>
       <c r="L91">
         <v>-0.007875620626901253</v>
@@ -7189,13 +7189,13 @@
         <v>-0.5</v>
       </c>
       <c r="U91">
-        <v>0.9998713247120889</v>
+        <v>-0.0001286752879110509</v>
       </c>
       <c r="V91">
-        <v>0.9998069994853319</v>
+        <v>-0.0001930005146680847</v>
       </c>
       <c r="W91">
-        <v>1.000968054211036</v>
+        <v>0.0009680542110357404</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7230,7 +7230,7 @@
         <v>0.9587127206106983</v>
       </c>
       <c r="K92">
-        <v>48.94606087572585</v>
+        <v>-0.0105393912427415</v>
       </c>
       <c r="L92">
         <v>-0.008834998362239204</v>
@@ -7260,13 +7260,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U92">
-        <v>0.9999678270381571</v>
+        <v>-3.21729618428801E-05</v>
       </c>
       <c r="V92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W92">
-        <v>1.001934235976789</v>
+        <v>0.0019342359767891</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7301,7 +7301,7 @@
         <v>0.8740133339315804</v>
       </c>
       <c r="K93">
-        <v>46.63858672221647</v>
+        <v>-0.03361413277783526</v>
       </c>
       <c r="L93">
         <v>-0.009413930250384886</v>
@@ -7331,13 +7331,13 @@
         <v>-0.8125</v>
       </c>
       <c r="U93">
-        <v>0.9999356520060487</v>
+        <v>-6.434799395127477E-05</v>
       </c>
       <c r="V93">
-        <v>0.9999356540763144</v>
+        <v>-6.434592368564918E-05</v>
       </c>
       <c r="W93">
-        <v>0.999034749034749</v>
+        <v>-0.0009652509652510188</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7372,7 +7372,7 @@
         <v>0.9670101693956187</v>
       </c>
       <c r="K94">
-        <v>49.16142196116562</v>
+        <v>-0.008385780388343866</v>
       </c>
       <c r="L94">
         <v>-0.009339929324320135</v>
@@ -7402,13 +7402,13 @@
         <v>-0.875</v>
       </c>
       <c r="U94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V94">
-        <v>0.9998712998712997</v>
+        <v>-0.0001287001287002543</v>
       </c>
       <c r="W94">
-        <v>1.000966183574879</v>
+        <v>0.0009661835748793202</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7443,7 +7443,7 @@
         <v>0.9670101693956185</v>
       </c>
       <c r="K95">
-        <v>49.16142196116562</v>
+        <v>-0.008385780388343866</v>
       </c>
       <c r="L95">
         <v>-0.008840969489703936</v>
@@ -7473,13 +7473,13 @@
         <v>-0.625</v>
       </c>
       <c r="U95">
-        <v>0.999967823932559</v>
+        <v>-3.217606744099211E-05</v>
       </c>
       <c r="V95">
-        <v>0.9999356416527224</v>
+        <v>-6.435834727758216E-05</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7514,7 +7514,7 @@
         <v>1.070053754397323</v>
       </c>
       <c r="K96">
-        <v>51.69207573108937</v>
+        <v>0.01692075731089371</v>
       </c>
       <c r="L96">
         <v>-0.007732696537767756</v>
@@ -7544,13 +7544,13 @@
         <v>-0.375</v>
       </c>
       <c r="U96">
-        <v>1.000032177102774</v>
+        <v>3.217710277358954E-05</v>
       </c>
       <c r="V96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W96">
-        <v>1.000965250965251</v>
+        <v>0.0009652509652509078</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7585,7 +7585,7 @@
         <v>1.070053754397323</v>
       </c>
       <c r="K97">
-        <v>51.69207573108937</v>
+        <v>0.01692075731089371</v>
       </c>
       <c r="L97">
         <v>-0.006297588176256508</v>
@@ -7615,13 +7615,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U97">
-        <v>1.000064352134882</v>
+        <v>6.435213488198421E-05</v>
       </c>
       <c r="V97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7656,7 +7656,7 @@
         <v>1.41258090675756</v>
       </c>
       <c r="K98">
-        <v>58.55061286446258</v>
+        <v>0.08550612864462581</v>
       </c>
       <c r="L98">
         <v>-0.00367862136443455</v>
@@ -7686,13 +7686,13 @@
         <v>0.15625</v>
       </c>
       <c r="U98">
-        <v>1.000096521990927</v>
+        <v>9.652199092702318E-05</v>
       </c>
       <c r="V98">
-        <v>1.000064362489541</v>
+        <v>6.436248954111434E-05</v>
       </c>
       <c r="W98">
-        <v>1.002892960462874</v>
+        <v>0.002892960462873573</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Aker 15.12.2020.xlsx
+++ b/data_clean/Aker 15.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -731,13 +734,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:X98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,10 +810,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>516</v>
@@ -867,7 +873,7 @@
         <v>516</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -878,10 +884,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>515</v>
@@ -938,7 +947,7 @@
         <v>515.5</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>515.5</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -949,10 +958,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>517</v>
@@ -1009,21 +1021,24 @@
         <v>516</v>
       </c>
       <c r="T4">
+        <v>516</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.0009699321047527132</v>
       </c>
       <c r="V4">
         <v>0.0009699321047527132</v>
       </c>
       <c r="W4">
+        <v>0.0009699321047527132</v>
+      </c>
+      <c r="X4">
         <v>0.003883495145631022</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>517</v>
@@ -1080,21 +1095,24 @@
         <v>516.25</v>
       </c>
       <c r="T5">
+        <v>516.3333333333334</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.0004844961240308976</v>
       </c>
       <c r="V5">
         <v>0.0004844961240308976</v>
       </c>
       <c r="W5">
+        <v>0.0004844961240308976</v>
+      </c>
+      <c r="X5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>518</v>
@@ -1151,21 +1169,24 @@
         <v>516.6</v>
       </c>
       <c r="T6">
+        <v>517.3333333333334</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.0006779661016949046</v>
       </c>
       <c r="V6">
         <v>0.0006779661016949046</v>
       </c>
       <c r="W6">
+        <v>0.0006779661016949046</v>
+      </c>
+      <c r="X6">
         <v>0.0019342359767891</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>518.5</v>
@@ -1222,21 +1243,24 @@
         <v>516.9166666666666</v>
       </c>
       <c r="T7">
+        <v>517.8333333333334</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.0006129823202993823</v>
       </c>
       <c r="V7">
         <v>0.0006129823202993823</v>
       </c>
       <c r="W7">
+        <v>0.0006129823202993823</v>
+      </c>
+      <c r="X7">
         <v>0.0009652509652509078</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>520</v>
@@ -1293,21 +1317,24 @@
         <v>517.3571428571429</v>
       </c>
       <c r="T8">
+        <v>518.8333333333334</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0.0008521222449968668</v>
       </c>
       <c r="V8">
         <v>0.0008521222449968668</v>
       </c>
       <c r="W8">
+        <v>0.0008521222449968668</v>
+      </c>
+      <c r="X8">
         <v>0.002892960462873573</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>520</v>
@@ -1364,21 +1391,24 @@
         <v>517.6875</v>
       </c>
       <c r="T9">
+        <v>519.5</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.0006385475631642823</v>
       </c>
       <c r="V9">
         <v>0.0006385475631642823</v>
       </c>
       <c r="W9">
+        <v>0.0006385475631642823</v>
+      </c>
+      <c r="X9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>519</v>
@@ -1435,21 +1465,24 @@
         <v>517.8333333333334</v>
       </c>
       <c r="T10">
+        <v>519.6666666666666</v>
+      </c>
+      <c r="U10">
         <v>0.2291666666666288</v>
-      </c>
-      <c r="U10">
-        <v>0.0002817014769207482</v>
       </c>
       <c r="V10">
         <v>0.0002817014769207482</v>
       </c>
       <c r="W10">
+        <v>0.0002817014769207482</v>
+      </c>
+      <c r="X10">
         <v>-0.001923076923076916</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>517.5</v>
@@ -1506,21 +1539,24 @@
         <v>517.8</v>
       </c>
       <c r="T11">
+        <v>518.8333333333334</v>
+      </c>
+      <c r="U11">
         <v>0.5750000000000455</v>
-      </c>
-      <c r="U11">
-        <v>-6.437077566801008E-05</v>
       </c>
       <c r="V11">
         <v>-6.437077566801008E-05</v>
       </c>
       <c r="W11">
+        <v>-6.437077566801008E-05</v>
+      </c>
+      <c r="X11">
         <v>-0.002890173410404651</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>517</v>
@@ -1577,21 +1613,24 @@
         <v>517.7272727272727</v>
       </c>
       <c r="T12">
+        <v>517.8333333333334</v>
+      </c>
+      <c r="U12">
         <v>0.6477272727272521</v>
-      </c>
-      <c r="U12">
-        <v>-0.0001404543698864114</v>
       </c>
       <c r="V12">
         <v>-0.0001404543698864114</v>
       </c>
       <c r="W12">
+        <v>-0.0001404543698864114</v>
+      </c>
+      <c r="X12">
         <v>-0.0009661835748792091</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>517.5</v>
@@ -1648,21 +1687,24 @@
         <v>517.7083333333334</v>
       </c>
       <c r="T13">
+        <v>517.3333333333334</v>
+      </c>
+      <c r="U13">
         <v>0.7291666666666288</v>
-      </c>
-      <c r="U13">
-        <v>-3.65817968978055E-05</v>
       </c>
       <c r="V13">
         <v>-3.65817968978055E-05</v>
       </c>
       <c r="W13">
+        <v>-3.65817968978055E-05</v>
+      </c>
+      <c r="X13">
         <v>0.0009671179883945502</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>517</v>
@@ -1719,21 +1761,24 @@
         <v>517.6538461538462</v>
       </c>
       <c r="T14">
+        <v>517.1666666666666</v>
+      </c>
+      <c r="U14">
         <v>0.6586538461538112</v>
-      </c>
-      <c r="U14">
-        <v>-0.0001052468658102601</v>
       </c>
       <c r="V14">
         <v>-0.0001052468658102601</v>
       </c>
       <c r="W14">
+        <v>-0.0001052468658102601</v>
+      </c>
+      <c r="X14">
         <v>-0.0009661835748792091</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>518.5</v>
@@ -1790,21 +1835,24 @@
         <v>517.7142857142857</v>
       </c>
       <c r="T15">
+        <v>517.6666666666666</v>
+      </c>
+      <c r="U15">
         <v>0.5982142857143344</v>
-      </c>
-      <c r="U15">
-        <v>0.0001167567108570911</v>
       </c>
       <c r="V15">
         <v>0.0001167567108570911</v>
       </c>
       <c r="W15">
+        <v>0.0001167567108570911</v>
+      </c>
+      <c r="X15">
         <v>0.002901353965183651</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>519</v>
@@ -1861,21 +1909,24 @@
         <v>517.8</v>
       </c>
       <c r="T16">
+        <v>518.1666666666666</v>
+      </c>
+      <c r="U16">
         <v>0.3875000000000455</v>
-      </c>
-      <c r="U16">
-        <v>0.0001655629139072357</v>
       </c>
       <c r="V16">
         <v>0.0001655629139072357</v>
       </c>
       <c r="W16">
+        <v>0.0001655629139072357</v>
+      </c>
+      <c r="X16">
         <v>0.0009643201542912649</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>518</v>
@@ -1932,21 +1983,24 @@
         <v>517.9333333333333</v>
       </c>
       <c r="T17">
+        <v>518.5</v>
+      </c>
+      <c r="U17">
         <v>0.125</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>2.414059482425124E-05</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.0002574996781254946</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-0.0019267822736031</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>517</v>
@@ -2003,21 +2057,24 @@
         <v>518.0666666666667</v>
       </c>
       <c r="T18">
+        <v>518</v>
+      </c>
+      <c r="U18">
         <v>-0.1875</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-9.230004615001786E-05</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0002574333891107727</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-0.001930501930501927</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>516</v>
@@ -2074,21 +2131,24 @@
         <v>518</v>
       </c>
       <c r="T19">
+        <v>517</v>
+      </c>
+      <c r="U19">
         <v>-0.4375</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-0.0001893509050974185</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-0.0001286835671086006</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-0.001934235976789211</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>517.5</v>
@@ -2145,21 +2205,24 @@
         <v>518.0333333333333</v>
       </c>
       <c r="T20">
+        <v>516.8333333333334</v>
+      </c>
+      <c r="U20">
         <v>-0.40625</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-1.694513166361489E-05</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>6.435006435001611E-05</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.002906976744186052</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>518</v>
@@ -2216,21 +2279,24 @@
         <v>518.0333333333333</v>
       </c>
       <c r="T21">
+        <v>517.1666666666666</v>
+      </c>
+      <c r="U21">
         <v>-0.40625</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>3.304356667177544E-05</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.0009661835748793202</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>518.5</v>
@@ -2287,21 +2353,24 @@
         <v>518.0333333333333</v>
       </c>
       <c r="T22">
+        <v>518</v>
+      </c>
+      <c r="U22">
         <v>-0.25</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>7.588876087449847E-05</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.0009652509652509078</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>519</v>
@@ -2358,21 +2427,24 @@
         <v>517.9666666666667</v>
       </c>
       <c r="T23">
+        <v>518.5</v>
+      </c>
+      <c r="U23">
         <v>-0.21875</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.000112883804936903</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-0.0001286918473712984</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.0009643201542912649</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>517.5</v>
@@ -2429,21 +2501,24 @@
         <v>517.8</v>
       </c>
       <c r="T24">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U24">
         <v>-0.25</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-2.290137522753533E-05</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-0.0003217710277367836</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-0.002890173410404651</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>518.5</v>
@@ -2500,21 +2575,24 @@
         <v>517.7666666666667</v>
       </c>
       <c r="T25">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U25">
         <v>-0.09375</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>5.948132286448526E-05</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-6.437491953126262E-05</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.001932367149758418</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>519</v>
@@ -2571,21 +2649,24 @@
         <v>517.8666666666667</v>
       </c>
       <c r="T26">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U26">
         <v>0.15625</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>9.334513559200452E-05</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0001931371917853753</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.0009643201542912649</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>519.5</v>
@@ -2642,21 +2723,24 @@
         <v>518.0333333333333</v>
       </c>
       <c r="T27">
+        <v>519</v>
+      </c>
+      <c r="U27">
         <v>0.46875</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.0001232932060986069</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0003218331616889891</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.0009633911368014392</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>519</v>
@@ -2713,21 +2797,24 @@
         <v>518.1333333333333</v>
       </c>
       <c r="T28">
+        <v>519.1666666666666</v>
+      </c>
+      <c r="U28">
         <v>0.53125</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>7.838962946449257E-05</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0001930377710572806</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-0.0009624639076034613</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>520</v>
@@ -2784,21 +2871,24 @@
         <v>518.3333333333334</v>
       </c>
       <c r="T29">
+        <v>519.5</v>
+      </c>
+      <c r="U29">
         <v>0.625</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.0001417385574844499</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0003860010293361693</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.0019267822736031</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>518.5</v>
@@ -2855,21 +2945,24 @@
         <v>518.3333333333334</v>
       </c>
       <c r="T30">
+        <v>519.1666666666666</v>
+      </c>
+      <c r="U30">
         <v>0.53125</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3.20946769196695E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.002884615384615374</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>520.5</v>
@@ -2926,21 +3019,24 @@
         <v>518.4333333333333</v>
       </c>
       <c r="T31">
+        <v>519.6666666666666</v>
+      </c>
+      <c r="U31">
         <v>0.59375</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.000158645632252874</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0001929260450159731</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.003857280617164838</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>521</v>
@@ -2997,21 +3093,24 @@
         <v>518.6333333333333</v>
       </c>
       <c r="T32">
+        <v>520</v>
+      </c>
+      <c r="U32">
         <v>0.90625</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.0003216778717791691</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.0003857776634734744</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.0009606147934677622</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>521.5</v>
@@ -3068,21 +3167,24 @@
         <v>518.9333333333333</v>
       </c>
       <c r="T33">
+        <v>521</v>
+      </c>
+      <c r="U33">
         <v>1.0625</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0004180467569219193</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0005784433446878179</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.0009596928982724684</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>522</v>
@@ -3139,21 +3241,24 @@
         <v>519.3333333333334</v>
       </c>
       <c r="T34">
+        <v>521.5</v>
+      </c>
+      <c r="U34">
         <v>1.125</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0003214400514304216</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.0007708119218912124</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.0009587727708533222</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>521</v>
@@ -3210,21 +3315,24 @@
         <v>519.5666666666667</v>
       </c>
       <c r="T35">
+        <v>521.5</v>
+      </c>
+      <c r="U35">
         <v>1</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.0002570694087402625</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.0004492939666238538</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.001915708812260553</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>521</v>
@@ -3281,21 +3389,24 @@
         <v>519.7666666666667</v>
       </c>
       <c r="T36">
+        <v>521.3333333333334</v>
+      </c>
+      <c r="U36">
         <v>1.03125</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.0001927525057825452</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.0003849361647525473</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>520.5</v>
@@ -3352,21 +3463,24 @@
         <v>519.9</v>
       </c>
       <c r="T37">
+        <v>520.8333333333334</v>
+      </c>
+      <c r="U37">
         <v>0.9375</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.0001284769062761537</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.0002565253639452703</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>-0.0009596928982725794</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>521</v>
@@ -3423,21 +3537,24 @@
         <v>520.0333333333333</v>
       </c>
       <c r="T38">
+        <v>520.8333333333334</v>
+      </c>
+      <c r="U38">
         <v>1.09375</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>6.423020104051602E-05</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.0002564595755594201</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.0009606147934677622</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>521</v>
@@ -3494,21 +3611,24 @@
         <v>520.2666666666667</v>
       </c>
       <c r="T39">
+        <v>520.8333333333334</v>
+      </c>
+      <c r="U39">
         <v>1.03125</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>6.422607578682182E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.0004486891865906895</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>520</v>
@@ -3565,21 +3685,24 @@
         <v>520.3666666666667</v>
       </c>
       <c r="T40">
+        <v>520.6666666666666</v>
+      </c>
+      <c r="U40">
         <v>0.75</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>6.422195106292605E-05</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.0001922091235264656</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>-0.001919385796545159</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>519.5</v>
@@ -3636,21 +3759,24 @@
         <v>520.4</v>
       </c>
       <c r="T41">
+        <v>520.1666666666666</v>
+      </c>
+      <c r="U41">
         <v>0.4375</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>0.0001284356537374354</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>6.405739542625355E-05</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>-0.0009615384615384581</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>520</v>
@@ -3707,21 +3833,24 @@
         <v>520.4333333333333</v>
       </c>
       <c r="T42">
+        <v>519.8333333333334</v>
+      </c>
+      <c r="U42">
         <v>0.125</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>0.0001926287402080895</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>6.405329233927226E-05</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.0009624639076035724</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>519.5</v>
@@ -3778,21 +3907,24 @@
         <v>520.4666666666667</v>
       </c>
       <c r="T43">
+        <v>519.6666666666666</v>
+      </c>
+      <c r="U43">
         <v>-0.0625</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>0.000128394427681755</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>6.404918977787055E-05</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>-0.0009615384615384581</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>519</v>
@@ -3849,21 +3981,24 @@
         <v>520.4</v>
       </c>
       <c r="T44">
+        <v>519.5</v>
+      </c>
+      <c r="U44">
         <v>-0.3125</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>0.0001283779446692446</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-0.0001280901754836528</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>-0.0009624639076034613</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>520</v>
@@ -3920,21 +4055,24 @@
         <v>520.5</v>
       </c>
       <c r="T45">
+        <v>519.5</v>
+      </c>
+      <c r="U45">
         <v>-0.375</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>9.627109941590106E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0.0001921598770178168</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0.0019267822736031</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>520</v>
@@ -3991,21 +4129,24 @@
         <v>520.4666666666667</v>
       </c>
       <c r="T46">
+        <v>519.6666666666666</v>
+      </c>
+      <c r="U46">
         <v>-0.59375</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>6.417455478913148E-05</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-6.404098623113974E-05</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>520</v>
@@ -4062,21 +4203,24 @@
         <v>520.4</v>
       </c>
       <c r="T47">
+        <v>520</v>
+      </c>
+      <c r="U47">
         <v>-0.6875</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>0.0001283408733594449</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-0.0001280901754836528</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>521</v>
@@ -4133,21 +4277,24 @@
         <v>520.3666666666667</v>
       </c>
       <c r="T48">
+        <v>520.3333333333334</v>
+      </c>
+      <c r="U48">
         <v>-0.5625</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>0.0002566488081869878</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-6.405329233916124E-05</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>0.001923076923076916</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>522</v>
@@ -4204,21 +4351,24 @@
         <v>520.3666666666667</v>
       </c>
       <c r="T49">
+        <v>521</v>
+      </c>
+      <c r="U49">
         <v>-0.28125</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>0.0003848744347156874</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>0</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.001919385796545159</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>520.5</v>
@@ -4275,21 +4425,24 @@
         <v>520.3333333333334</v>
       </c>
       <c r="T50">
+        <v>521.1666666666666</v>
+      </c>
+      <c r="U50">
         <v>-0.125</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>0.0001923631816871385</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-6.405739542625355E-05</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>-0.002873563218390829</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>519</v>
@@ -4346,21 +4499,24 @@
         <v>520.2</v>
       </c>
       <c r="T51">
+        <v>520.5</v>
+      </c>
+      <c r="U51">
         <v>-0.0625</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>6.410872840323378E-05</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>-0.0002562459961562569</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>-0.002881844380403509</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>518</v>
@@ -4417,21 +4573,24 @@
         <v>520.0333333333333</v>
       </c>
       <c r="T52">
+        <v>519.1666666666666</v>
+      </c>
+      <c r="U52">
         <v>0</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>-3.205230936886849E-05</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-0.0003203895937461398</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>-0.0019267822736031</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>518</v>
@@ -4488,21 +4647,24 @@
         <v>519.8333333333334</v>
       </c>
       <c r="T53">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U53">
         <v>-0.09375</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-6.41066735048712E-05</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>-0.0003845907313632102</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>518</v>
@@ -4559,21 +4721,24 @@
         <v>519.6333333333333</v>
       </c>
       <c r="T54">
+        <v>518</v>
+      </c>
+      <c r="U54">
         <v>-0.15625</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>3.205539171702299E-05</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>-0.0003847386983008017</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>519</v>
@@ -4630,21 +4795,24 @@
         <v>519.5666666666667</v>
       </c>
       <c r="T55">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U55">
         <v>-0.15625</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>3.205436420161689E-05</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>-0.0001282955930462792</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.001930501930502038</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>519.5</v>
@@ -4701,21 +4869,24 @@
         <v>519.5666666666667</v>
       </c>
       <c r="T56">
+        <v>518.8333333333334</v>
+      </c>
+      <c r="U56">
         <v>-0.3125</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>3.205333675238009E-05</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>0</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0.0009633911368014392</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>519.5</v>
@@ -4772,21 +4943,24 @@
         <v>519.5333333333333</v>
       </c>
       <c r="T57">
+        <v>519.3333333333334</v>
+      </c>
+      <c r="U57">
         <v>-0.625</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>0</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-6.415602745890592E-05</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>520</v>
@@ -4843,21 +5017,24 @@
         <v>519.5666666666667</v>
       </c>
       <c r="T58">
+        <v>519.6666666666666</v>
+      </c>
+      <c r="U58">
         <v>-0.6875</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>6.410461873773698E-05</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>6.416014371879442E-05</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>0.0009624639076035724</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>519.5</v>
@@ -4914,21 +5091,24 @@
         <v>519.6</v>
       </c>
       <c r="T59">
+        <v>519.6666666666666</v>
+      </c>
+      <c r="U59">
         <v>-0.625</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-3.205025479946499E-05</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>6.41560274587949E-05</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>-0.0009615384615384581</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>519.5</v>
@@ -4985,21 +5165,24 @@
         <v>519.5666666666667</v>
       </c>
       <c r="T60">
+        <v>519.6666666666666</v>
+      </c>
+      <c r="U60">
         <v>-0.46875</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>6.410256410260828E-05</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>-6.415191172692847E-05</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>519</v>
@@ -5056,21 +5239,24 @@
         <v>519.5</v>
       </c>
       <c r="T61">
+        <v>519.3333333333334</v>
+      </c>
+      <c r="U61">
         <v>-0.28125</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-9.614768284071928E-05</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>-0.0001283120549177008</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>-0.0009624639076034613</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>518.5</v>
@@ -5127,21 +5313,24 @@
         <v>519.4</v>
       </c>
       <c r="T62">
+        <v>519</v>
+      </c>
+      <c r="U62">
         <v>-0.125</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-0.0001602615468445645</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-0.0001924927815207811</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>-0.0009633911368015502</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>518.5</v>
@@ -5198,21 +5387,24 @@
         <v>519.2333333333333</v>
       </c>
       <c r="T63">
+        <v>518.6666666666666</v>
+      </c>
+      <c r="U63">
         <v>-0.09375</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-0.0001923446816696206</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>-0.0003208830702091658</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>518</v>
@@ -5269,21 +5461,24 @@
         <v>518.9666666666667</v>
       </c>
       <c r="T64">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U64">
         <v>-0.09375</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-0.0002565089136847831</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>-0.0005135777107273531</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>-0.0009643201542912649</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>518.5</v>
@@ -5340,21 +5535,24 @@
         <v>518.8333333333334</v>
       </c>
       <c r="T65">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U65">
         <v>0</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>-0.0001603592046182101</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>-0.0002569208041620641</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0.0009652509652509078</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>518</v>
@@ -5411,21 +5609,24 @@
         <v>518.7666666666667</v>
       </c>
       <c r="T66">
+        <v>518.1666666666666</v>
+      </c>
+      <c r="U66">
         <v>-0.09375</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>-0.0001924619085806878</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>-0.0001284934147125494</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>-0.0009643201542912649</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>517.5</v>
@@ -5482,21 +5683,24 @@
         <v>518.7333333333333</v>
       </c>
       <c r="T67">
+        <v>518</v>
+      </c>
+      <c r="U67">
         <v>-0.25</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>-0.0001924989572973379</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>-6.425496369588668E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>-0.0009652509652510188</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>518.5</v>
@@ -5553,21 +5757,24 @@
         <v>518.7666666666667</v>
       </c>
       <c r="T68">
+        <v>518</v>
+      </c>
+      <c r="U68">
         <v>-0.40625</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>-0.0001604466835670726</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>6.425909266161156E-05</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0.001932367149758418</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>518</v>
@@ -5624,21 +5831,24 @@
         <v>518.7666666666667</v>
       </c>
       <c r="T69">
+        <v>518</v>
+      </c>
+      <c r="U69">
         <v>-0.53125</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>-0.0001925669170035338</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>0</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>-0.0009643201542912649</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>517.5</v>
@@ -5695,21 +5905,24 @@
         <v>518.6666666666666</v>
       </c>
       <c r="T70">
+        <v>518</v>
+      </c>
+      <c r="U70">
         <v>-0.625</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-0.0001605033384695087</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-0.0001927648910878821</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>-0.0009652509652510188</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>517.5</v>
@@ -5766,21 +5979,24 @@
         <v>518.5333333333333</v>
       </c>
       <c r="T71">
+        <v>517.6666666666666</v>
+      </c>
+      <c r="U71">
         <v>-0.65625</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>-0.0001284232831413323</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>-0.0002570694087403735</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>518</v>
@@ -5837,21 +6053,24 @@
         <v>518.4333333333333</v>
       </c>
       <c r="T72">
+        <v>517.6666666666666</v>
+      </c>
+      <c r="U72">
         <v>-0.5625</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>-0.0001284397777990831</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>-0.0001928516328105756</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>0.0009661835748793202</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>517.5</v>
@@ -5908,21 +6127,24 @@
         <v>518.2666666666667</v>
       </c>
       <c r="T73">
+        <v>517.6666666666666</v>
+      </c>
+      <c r="U73">
         <v>-0.5625</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>-0.0001284562766948882</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>-0.0003214813862276733</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>-0.0009652509652510188</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>518</v>
@@ -5979,21 +6201,24 @@
         <v>518.1666666666666</v>
       </c>
       <c r="T74">
+        <v>517.8333333333334</v>
+      </c>
+      <c r="U74">
         <v>-0.4375</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>-6.423638991481795E-05</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>-0.0001929508618472298</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0.0009661835748793202</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>518</v>
@@ -6050,21 +6275,24 @@
         <v>518.0666666666667</v>
       </c>
       <c r="T75">
+        <v>517.8333333333334</v>
+      </c>
+      <c r="U75">
         <v>-0.28125</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-0.0001284810329873487</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>-0.0001929880990670929</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>518.5</v>
@@ -6121,21 +6349,24 @@
         <v>518.0333333333333</v>
       </c>
       <c r="T76">
+        <v>518.1666666666666</v>
+      </c>
+      <c r="U76">
         <v>-0.21875</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-9.637315686350512E-05</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>-6.434178355441134E-05</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0.0009652509652509078</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>518</v>
@@ -6192,21 +6423,24 @@
         <v>518</v>
       </c>
       <c r="T77">
+        <v>518.1666666666666</v>
+      </c>
+      <c r="U77">
         <v>-0.15625</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-0.0001285099273917734</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>-6.434592368564918E-05</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>-0.0009643201542912649</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>518</v>
@@ -6263,21 +6497,24 @@
         <v>517.9666666666667</v>
       </c>
       <c r="T78">
+        <v>518.1666666666666</v>
+      </c>
+      <c r="U78">
         <v>-0.0625</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>-0.0001927896664739581</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>-6.435006435001611E-05</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>519</v>
@@ -6334,21 +6571,24 @@
         <v>518.0333333333333</v>
       </c>
       <c r="T79">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U79">
         <v>0.09375</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>-0.0001928268414963519</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>0.0001287084110945802</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0.001930501930502038</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>518.5</v>
@@ -6405,21 +6645,24 @@
         <v>518.0333333333333</v>
       </c>
       <c r="T80">
+        <v>518.5</v>
+      </c>
+      <c r="U80">
         <v>0.125</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>-0.0001285760205722575</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>0</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>-0.0009633911368015502</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>518.5</v>
@@ -6476,21 +6719,24 @@
         <v>518.0666666666667</v>
       </c>
       <c r="T81">
+        <v>518.6666666666666</v>
+      </c>
+      <c r="U81">
         <v>0.25</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>-3.214813862273402E-05</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>6.434592368598224E-05</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>518.5</v>
@@ -6547,21 +6793,24 @@
         <v>518.1333333333333</v>
       </c>
       <c r="T82">
+        <v>518.5</v>
+      </c>
+      <c r="U82">
         <v>0.28125</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>3.214917215887958E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>0.0001286835671083786</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>519.5</v>
@@ -6618,21 +6867,24 @@
         <v>518.2</v>
       </c>
       <c r="T83">
+        <v>518.8333333333334</v>
+      </c>
+      <c r="U83">
         <v>0.34375</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>9.644441586842412E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>0.0001286670097788711</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.00192864030858253</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>519.5</v>
@@ -6689,21 +6941,24 @@
         <v>518.3</v>
       </c>
       <c r="T84">
+        <v>519.1666666666666</v>
+      </c>
+      <c r="U84">
         <v>0.40625</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>9.643511523993453E-05</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>0.0001929756850636011</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>519</v>
@@ -6760,21 +7015,24 @@
         <v>518.4</v>
       </c>
       <c r="T85">
+        <v>519.3333333333334</v>
+      </c>
+      <c r="U85">
         <v>0.46875</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>0</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>0.0001929384526335731</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>-0.0009624639076034613</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>518.5</v>
@@ -6831,21 +7089,24 @@
         <v>518.4666666666667</v>
       </c>
       <c r="T86">
+        <v>519</v>
+      </c>
+      <c r="U86">
         <v>0.46875</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-6.428387760348819E-05</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>0.0001286008230454438</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>-0.0009633911368015502</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>516.5</v>
@@ -6902,21 +7163,24 @@
         <v>518.3666666666667</v>
       </c>
       <c r="T87">
+        <v>518</v>
+      </c>
+      <c r="U87">
         <v>0.21875</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>-0.0001928640308582752</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>-0.000192876430500255</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>-0.003857280617164949</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>516.5</v>
@@ -6973,21 +7237,24 @@
         <v>518.3</v>
       </c>
       <c r="T88">
+        <v>517.1666666666666</v>
+      </c>
+      <c r="U88">
         <v>0.0625</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>-0.0002250514403292492</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-0.0001286090926629901</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>517</v>
@@ -7044,21 +7311,24 @@
         <v>518.2333333333333</v>
       </c>
       <c r="T89">
+        <v>516.6666666666666</v>
+      </c>
+      <c r="U89">
         <v>-0.09375</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>-0.0001607872142005418</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>-0.0001286256350889747</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.0009680542110357404</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>516.5</v>
@@ -7115,21 +7385,24 @@
         <v>518.1333333333333</v>
       </c>
       <c r="T90">
+        <v>516.6666666666666</v>
+      </c>
+      <c r="U90">
         <v>-0.25</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-0.0001929756850637121</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-0.0001929632726571651</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>-0.0009671179883945502</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>517</v>
@@ -7186,21 +7459,24 @@
         <v>518.0333333333333</v>
       </c>
       <c r="T91">
+        <v>516.8333333333334</v>
+      </c>
+      <c r="U91">
         <v>-0.5</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-0.0001286752879110509</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>-0.0001930005146680847</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0.0009680542110357404</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>518</v>
@@ -7257,21 +7533,24 @@
         <v>518.0333333333333</v>
       </c>
       <c r="T92">
+        <v>517.1666666666666</v>
+      </c>
+      <c r="U92">
         <v>-0.65625</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>-3.21729618428801E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>0</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0.0019342359767891</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>517.5</v>
@@ -7328,21 +7607,24 @@
         <v>518</v>
       </c>
       <c r="T93">
+        <v>517.5</v>
+      </c>
+      <c r="U93">
         <v>-0.8125</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>-6.434799395127477E-05</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>-6.434592368564918E-05</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>-0.0009652509652510188</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>518</v>
@@ -7399,21 +7681,24 @@
         <v>517.9333333333333</v>
       </c>
       <c r="T94">
+        <v>517.8333333333334</v>
+      </c>
+      <c r="U94">
         <v>-0.875</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>0</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-0.0001287001287002543</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0.0009661835748793202</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>518</v>
@@ -7470,21 +7755,24 @@
         <v>517.9</v>
       </c>
       <c r="T95">
+        <v>517.8333333333334</v>
+      </c>
+      <c r="U95">
         <v>-0.625</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>-3.217606744099211E-05</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>-6.435834727758216E-05</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>518.5</v>
@@ -7541,21 +7829,24 @@
         <v>517.9</v>
       </c>
       <c r="T96">
+        <v>518.1666666666666</v>
+      </c>
+      <c r="U96">
         <v>-0.375</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>3.217710277358954E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>0</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0.0009652509652509078</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>518.5</v>
@@ -7612,21 +7903,24 @@
         <v>517.9</v>
       </c>
       <c r="T97">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U97">
         <v>-0.1875</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>6.435213488198421E-05</v>
-      </c>
-      <c r="V97">
-        <v>0</v>
       </c>
       <c r="W97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="X97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>520</v>
@@ -7683,15 +7977,18 @@
         <v>517.9333333333333</v>
       </c>
       <c r="T98">
+        <v>519</v>
+      </c>
+      <c r="U98">
         <v>0.15625</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>9.652199092702318E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>6.436248954111434E-05</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>0.002892960462873573</v>
       </c>
     </row>
